--- a/Unit #2 Bootstrap 1/Law_School_15.xlsx
+++ b/Unit #2 Bootstrap 1/Law_School_15.xlsx
@@ -854,7 +854,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
